--- a/Connected Office Web Application – User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application – User Acceptance Testing/Connected Office Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\LehlohonoloMoloi\CMPG323--Project--4--30586453\Connected Office Web Application – User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E25A8E-2824-45B2-A508-D5A7CE6C178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A3AD2F-E3C4-41F2-A914-6E8EC428F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2625" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
